--- a/output/fit_clients/fit_round_276.xlsx
+++ b/output/fit_clients/fit_round_276.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2058135299.108177</v>
+        <v>2464787035.105715</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09494337550182223</v>
+        <v>0.07611466081819734</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04344911512840349</v>
+        <v>0.03244269932475796</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1029067652.981559</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1921369017.435648</v>
+        <v>2432963675.660143</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1253786160834162</v>
+        <v>0.1334782842628857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04978835054081316</v>
+        <v>0.04746785178749337</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>960684536.5971296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3547103821.500664</v>
+        <v>3806965130.783144</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1225512284314192</v>
+        <v>0.1325181172562398</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02763456793769766</v>
+        <v>0.03187747427151869</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1773551892.838348</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2766792140.336913</v>
+        <v>2718611275.449463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1092432014414128</v>
+        <v>0.07985593916526966</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04515349945657843</v>
+        <v>0.03686933397791547</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>104</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1383396155.45031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2017990710.292223</v>
+        <v>2273121113.358417</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1404341624712676</v>
+        <v>0.1469875112821624</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0457157115430574</v>
+        <v>0.04792978330099474</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1008995382.791075</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2151303174.08205</v>
+        <v>2872329064.403814</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1006360737886847</v>
+        <v>0.07478515722522248</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03767605669452016</v>
+        <v>0.03097101986584914</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>86</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1075651633.613911</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3658177240.159264</v>
+        <v>2651384921.680504</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1632242664989732</v>
+        <v>0.1612636811273676</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02225423429682877</v>
+        <v>0.02881358882648954</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>89</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1829088744.874997</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1681805983.042094</v>
+        <v>1884207730.372646</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1647750505610902</v>
+        <v>0.1834662524446776</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02944079975315405</v>
+        <v>0.02872004301960518</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>840903062.2671154</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4413637151.933455</v>
+        <v>5012508141.607009</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1374031664677758</v>
+        <v>0.1351141940197238</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04576135590782131</v>
+        <v>0.04424045905479015</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>116</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2206818629.856117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3293322447.581951</v>
+        <v>4218501636.061081</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1550081914282158</v>
+        <v>0.1456275624519183</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03428657681843775</v>
+        <v>0.03299666206782338</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>114</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1646661187.228777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3207696303.406321</v>
+        <v>2986866222.264058</v>
       </c>
       <c r="F12" t="n">
-        <v>0.133420997442275</v>
+        <v>0.1927913516227673</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04442715737777078</v>
+        <v>0.05210417028786912</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>94</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1603848188.742831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4174141682.367211</v>
+        <v>3952804225.533432</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07048505697828301</v>
+        <v>0.08814834662055124</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02327733525082623</v>
+        <v>0.01989906963357186</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>93</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2087070887.268045</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3692951260.447695</v>
+        <v>3411696272.056126</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1799794698921358</v>
+        <v>0.1514292171460884</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04237819462418895</v>
+        <v>0.03661365106599604</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1846475614.481799</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1245911055.554135</v>
+        <v>1570961771.57993</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0824882845119841</v>
+        <v>0.07018512302134464</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04543405700410101</v>
+        <v>0.04538191821604142</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>622955555.6696042</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2529401092.455433</v>
+        <v>2660712975.933833</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07918223297584562</v>
+        <v>0.1027878398813677</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04736553392522021</v>
+        <v>0.03534244564559053</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>52</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1264700574.41807</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4435758726.461281</v>
+        <v>3432072342.346667</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1101096130438598</v>
+        <v>0.1239363793296259</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03209181898726603</v>
+        <v>0.03765997103849263</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>81</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2217879376.279032</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3277574388.159181</v>
+        <v>3500290526.05499</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1595984256080032</v>
+        <v>0.1708482830393531</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02958329881245847</v>
+        <v>0.02176962383394019</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>90</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1638787204.216789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>885242715.7379217</v>
+        <v>1284494220.29567</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1164240540693342</v>
+        <v>0.1373794192311391</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02021694709671946</v>
+        <v>0.01689554203718407</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>442621359.1759833</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2068316322.76385</v>
+        <v>2244153729.808958</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1105128896967916</v>
+        <v>0.1338809314522174</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03006457423193917</v>
+        <v>0.02471449083377733</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1034158180.459027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1881113009.654342</v>
+        <v>2009069982.332025</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08856667372981192</v>
+        <v>0.07077891364446262</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03265408709079706</v>
+        <v>0.03656845694822082</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>22</v>
-      </c>
-      <c r="J21" t="n">
-        <v>940556552.1692148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3140433436.416889</v>
+        <v>3496676903.633397</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1159843388786858</v>
+        <v>0.09254570639378164</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05243685340691321</v>
+        <v>0.05033165873735032</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>77</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1570216771.325449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1132712981.521867</v>
+        <v>998066981.3192531</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1424977224413804</v>
+        <v>0.1400183834578426</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0509961829164253</v>
+        <v>0.05077138753182897</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>566356538.5957357</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2837722529.65015</v>
+        <v>3847504000.236831</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1460306279591656</v>
+        <v>0.1120601985292793</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02729106211116349</v>
+        <v>0.0253833972016389</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>81</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1418861310.982018</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1168868693.258926</v>
+        <v>1171883208.362203</v>
       </c>
       <c r="F25" t="n">
-        <v>0.105827736595076</v>
+        <v>0.08206614199447078</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02732827213000464</v>
+        <v>0.02139080159593071</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>584434371.7508068</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1020029527.728449</v>
+        <v>1395533743.25575</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1059266587336236</v>
+        <v>0.0901539035972969</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02598440827149551</v>
+        <v>0.028283726931269</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>510014740.89871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3188838394.978728</v>
+        <v>4608420121.414906</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1171714254789554</v>
+        <v>0.1541552572471985</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02245721102155077</v>
+        <v>0.02401763808981799</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1594419247.904883</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3038618996.812908</v>
+        <v>3437866521.699001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1252750234330062</v>
+        <v>0.1427438446873462</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03248378584935026</v>
+        <v>0.03046157595829671</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>89</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1519309513.004585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5078614957.441183</v>
+        <v>4228363757.198632</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1148251488363598</v>
+        <v>0.1251520860462743</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04294655393028402</v>
+        <v>0.0318263291607878</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>122</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2539307420.813828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1486643571.289389</v>
+        <v>1962488939.032865</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1152396715443822</v>
+        <v>0.08764376420764818</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0306042326005778</v>
+        <v>0.03392677273474148</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>743321764.6684219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1482647027.364197</v>
+        <v>1434715805.921471</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09272313841845982</v>
+        <v>0.08126772862122769</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04294723640153321</v>
+        <v>0.0498534108847261</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>741323398.6113414</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1769553109.236658</v>
+        <v>1358848345.059323</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09256470543058708</v>
+        <v>0.08420378491032948</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03559466486764954</v>
+        <v>0.03185110075619384</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>884776678.7927355</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2072400903.332118</v>
+        <v>2232374310.751535</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2057188933639633</v>
+        <v>0.1981723008679827</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0451148069375087</v>
+        <v>0.04469280473081889</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>85</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1036200526.308302</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1134564996.019272</v>
+        <v>1364856021.910093</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1038751580682069</v>
+        <v>0.07449182673526392</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01747164940110205</v>
+        <v>0.01950200445522908</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>567282513.7619977</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1066316874.42391</v>
+        <v>880358513.1821012</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1138030338319662</v>
+        <v>0.1092188311314403</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03151485520025606</v>
+        <v>0.03123494152967492</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>533158441.2407495</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2045749109.066191</v>
+        <v>2276895722.570797</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1601542809456926</v>
+        <v>0.1799001031379347</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02580724714650556</v>
+        <v>0.02010097144051867</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>70</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1022874612.919073</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2078373993.411488</v>
+        <v>2884398881.959774</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07979933487683515</v>
+        <v>0.1060959721015701</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02912450012462011</v>
+        <v>0.03151559576029493</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>73</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1039187034.771643</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1798038597.305795</v>
+        <v>1545869253.855966</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07932704682572758</v>
+        <v>0.07909715585917321</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02446967209534149</v>
+        <v>0.02925147049803512</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>899019305.8092431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2110497137.021291</v>
+        <v>1430734451.758084</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1907357866086698</v>
+        <v>0.1330525463351872</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02321444894941848</v>
+        <v>0.03037488557666412</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1055248546.262828</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1776598855.550083</v>
+        <v>1743514612.770344</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1046762977921731</v>
+        <v>0.1504866899934642</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05797331905174809</v>
+        <v>0.0560839842702265</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>888299324.7133229</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2002005185.085106</v>
+        <v>2597667307.66321</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1222535318997646</v>
+        <v>0.1222443933845453</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03875745469337277</v>
+        <v>0.03879096045556191</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>68</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1001002666.571185</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2625101614.950598</v>
+        <v>4202911383.933116</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1221475199327182</v>
+        <v>0.1117635224009771</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02919140942775631</v>
+        <v>0.0386699832043333</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1312550742.095296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2009271007.292351</v>
+        <v>2114670252.103285</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1896686884617486</v>
+        <v>0.1891565547462906</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01884013753696541</v>
+        <v>0.01833876766837806</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>100</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1004635601.635425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1808308177.92923</v>
+        <v>2242937428.469844</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06811352764132537</v>
+        <v>0.1009691180011316</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02856415532223733</v>
+        <v>0.03127529621660714</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>904154157.0626187</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1931281014.678326</v>
+        <v>2162672740.769068</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1914322449862085</v>
+        <v>0.1319857296375526</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04639527591863047</v>
+        <v>0.04822940646108072</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>965640491.2788182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4125866878.4779</v>
+        <v>5241259149.24239</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1097492165652768</v>
+        <v>0.1267826750274638</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03734537238336433</v>
+        <v>0.05968743869187847</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>98</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2062933416.011613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5134598460.383039</v>
+        <v>4422408363.875598</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1367715997439309</v>
+        <v>0.1896856956494736</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04946088837637773</v>
+        <v>0.04620992602065557</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>74</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2567299293.645854</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3067005210.58679</v>
+        <v>4676076866.82592</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09820200331594792</v>
+        <v>0.08168600133016886</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02896895530750998</v>
+        <v>0.03626131811401812</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1533502693.877906</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1387994263.651961</v>
+        <v>1291384111.268188</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1936594548949095</v>
+        <v>0.1347966045273132</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03377907198935195</v>
+        <v>0.0423149831281024</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>693997181.2533704</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4019016809.201819</v>
+        <v>2790725408.181629</v>
       </c>
       <c r="F50" t="n">
-        <v>0.149262685562298</v>
+        <v>0.1414711895417591</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0337667234510874</v>
+        <v>0.0420345071188245</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>94</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2009508391.925781</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1535260361.076536</v>
+        <v>1393554956.600506</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1921399687502381</v>
+        <v>0.1682233592272309</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03880158824622502</v>
+        <v>0.03368902599262212</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>767630177.759017</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3233735636.475439</v>
+        <v>3976645142.692314</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1370598601029526</v>
+        <v>0.09764320416469542</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05189725131570801</v>
+        <v>0.05074215418644841</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>114</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1616867919.810132</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2888187310.173146</v>
+        <v>3712051290.948035</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1405102217716241</v>
+        <v>0.1565300449908671</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03055048372753525</v>
+        <v>0.03257390529896116</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1444093695.265359</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4716199236.093853</v>
+        <v>3441431183.139246</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1406415470223976</v>
+        <v>0.1463008351516767</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03245373116373082</v>
+        <v>0.04152433047088734</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2358099738.371194</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3542465650.832531</v>
+        <v>3307894297.677157</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2217135275689532</v>
+        <v>0.2223390546015437</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02987188425858935</v>
+        <v>0.03185683018352196</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1771232780.108836</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1185683804.154112</v>
+        <v>1321591637.953894</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1288075617329094</v>
+        <v>0.1637042683672003</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05347208463403064</v>
+        <v>0.03925565481540794</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>592841990.9040487</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4085419803.967632</v>
+        <v>3269858172.785856</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1521787687748472</v>
+        <v>0.1514164060725629</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01839627013105466</v>
+        <v>0.01780727043476808</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>87</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2042709997.521334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1524477165.03472</v>
+        <v>1638750840.32707</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1861416133632469</v>
+        <v>0.1686145258462795</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03222436937833635</v>
+        <v>0.03629559212071869</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>762238611.4309845</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5001057532.816752</v>
+        <v>5364562510.43452</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08604199424229766</v>
+        <v>0.1280702649639684</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03163556040999391</v>
+        <v>0.04443353862651191</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2500528694.064692</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3743327219.055296</v>
+        <v>3548483078.869916</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1670615448789321</v>
+        <v>0.1569345711782593</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02742083589092973</v>
+        <v>0.02882472055261436</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>85</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1871663757.845414</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2221802030.975264</v>
+        <v>3296873002.827039</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1160168701145442</v>
+        <v>0.1744299788855818</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03068631586136395</v>
+        <v>0.02850466497188515</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>95</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1110901069.339277</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1551422741.694188</v>
+        <v>1951035395.433489</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1798035223887581</v>
+        <v>0.1225078880020616</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04513372284384491</v>
+        <v>0.03161871977935451</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>775711361.627378</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5493860687.147952</v>
+        <v>4731197679.914833</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06805570936880496</v>
+        <v>0.06756263409007045</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04484558541368948</v>
+        <v>0.0453918044808444</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2746930339.288052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3459783169.076328</v>
+        <v>4749009912.700308</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1917040111053237</v>
+        <v>0.1743790661383931</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03018261145158408</v>
+        <v>0.02503559946407849</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>86</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1729891582.400372</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4959878694.672111</v>
+        <v>4657603221.47669</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1168814647338282</v>
+        <v>0.1207234241562521</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02756240873713755</v>
+        <v>0.02628456787356274</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>100</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2479939308.624311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4555409943.400055</v>
+        <v>3578402662.972348</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1155747457863702</v>
+        <v>0.142146920222105</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05068423212073515</v>
+        <v>0.04974705603241741</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>81</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2277704975.073947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2388034412.665724</v>
+        <v>3403915678.739708</v>
       </c>
       <c r="F67" t="n">
-        <v>0.102129183978301</v>
+        <v>0.06701743854292737</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04492964028779164</v>
+        <v>0.03143728061987681</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>88</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1194017276.369981</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3777841393.588062</v>
+        <v>3925981070.849609</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1343987735351599</v>
+        <v>0.1606737016699279</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03480637139814507</v>
+        <v>0.04693248647431275</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1888920679.112322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2117622368.536994</v>
+        <v>1750394646.831174</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1360006684271828</v>
+        <v>0.1326166606071297</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05429750795544128</v>
+        <v>0.03631831378354816</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1058811204.416535</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3440698178.704476</v>
+        <v>3398665121.92779</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09638533681587549</v>
+        <v>0.08373654333659662</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03508212249270266</v>
+        <v>0.03123865767681915</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>79</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1720349095.029711</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4710670409.163298</v>
+        <v>5416808534.25115</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1207425503308421</v>
+        <v>0.1206112138017899</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03334905938633032</v>
+        <v>0.02183699843181174</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>101</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2355335288.669197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1633976961.525773</v>
+        <v>1743405891.710912</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09424022815152917</v>
+        <v>0.1044633847967405</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04727384875623995</v>
+        <v>0.04801157981049147</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>816988486.1115487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3427411482.9072</v>
+        <v>3316857653.980119</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08048660755463535</v>
+        <v>0.08997629822278887</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04823677324550816</v>
+        <v>0.04288868172597363</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>104</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1713705698.297656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3244682892.643361</v>
+        <v>3736008467.910785</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1723794879945707</v>
+        <v>0.166157607064306</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02337005709559229</v>
+        <v>0.02268439772532358</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>94</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1622341490.586517</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1888459778.421226</v>
+        <v>2237063565.917761</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1414670175221634</v>
+        <v>0.1136069728876401</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03377392142695998</v>
+        <v>0.03715593536120353</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>944229863.8190446</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3823704573.75802</v>
+        <v>4661638508.106427</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08438409301361544</v>
+        <v>0.08047678082541675</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02835061041986844</v>
+        <v>0.02238058593195484</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1911852264.226061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2133634972.382039</v>
+        <v>1513216279.241633</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1817681807386353</v>
+        <v>0.118302253991972</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02178982160429017</v>
+        <v>0.03046167928881511</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1066817567.420112</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3652493589.62367</v>
+        <v>3925020924.850657</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1224089987418714</v>
+        <v>0.09348280472668805</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04972383275797584</v>
+        <v>0.05040928820345805</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>96</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1826246785.422264</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1435312151.534705</v>
+        <v>1787359018.071682</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1103425279543348</v>
+        <v>0.1740846408694687</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03205988186791917</v>
+        <v>0.03041878221467689</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>717656098.6760164</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5590298375.364212</v>
+        <v>5388214133.192015</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1053941179057338</v>
+        <v>0.08191627509546696</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0258064397518037</v>
+        <v>0.03471516001589273</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>58</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2795149266.235412</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3531780421.348012</v>
+        <v>3217456093.159868</v>
       </c>
       <c r="F81" t="n">
-        <v>0.12693885019008</v>
+        <v>0.08485403011402783</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02338888246474331</v>
+        <v>0.02666917036821628</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1765890156.479483</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4364365726.566235</v>
+        <v>3478897433.42198</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1830280488057055</v>
+        <v>0.1712973308498197</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01893484335987559</v>
+        <v>0.0284003373285376</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2182182882.70091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2373315064.388147</v>
+        <v>1573801018.819021</v>
       </c>
       <c r="F83" t="n">
-        <v>0.154602941665795</v>
+        <v>0.1466331603783997</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03943208599575329</v>
+        <v>0.03362784877122663</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1186657563.968122</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2440394091.113466</v>
+        <v>1684405855.8597</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1072669868091377</v>
+        <v>0.07584134850668432</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05129657327656584</v>
+        <v>0.03738222996486206</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1220196986.054079</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3461428393.570436</v>
+        <v>2486792710.479971</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1823543267150251</v>
+        <v>0.1133842599672092</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05397465634271295</v>
+        <v>0.05169230039722316</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>104</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1730714307.859882</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2528985636.880336</v>
+        <v>2036006971.078207</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1198858683054803</v>
+        <v>0.1647083927700896</v>
       </c>
       <c r="G86" t="n">
-        <v>0.025717022360525</v>
+        <v>0.02760675899665175</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1264492919.635566</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>931110919.5679799</v>
+        <v>1246896863.738124</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1150674924729729</v>
+        <v>0.1423985749980685</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04047998506354199</v>
+        <v>0.02867191814944516</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>465555446.4554457</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2916297419.458451</v>
+        <v>2362964922.129257</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1566882651366376</v>
+        <v>0.1619277895740188</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03356158462403665</v>
+        <v>0.03639514807208009</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>109</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1458148731.893955</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2558270704.560362</v>
+        <v>2777128325.077925</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1527651319193322</v>
+        <v>0.1530803844733225</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02517887446584945</v>
+        <v>0.0412205221469891</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>94</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1279135422.756268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1439585855.462037</v>
+        <v>1496950903.954814</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1078088774852173</v>
+        <v>0.1009390931429837</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03981951143604963</v>
+        <v>0.04894792379414679</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>719792895.3983692</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2105712761.70643</v>
+        <v>1299825010.714092</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1470967706634867</v>
+        <v>0.1333140210022555</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04981525859025372</v>
+        <v>0.05791724796959503</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1052856339.007681</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1948468652.460609</v>
+        <v>2189675748.03595</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07055377782420624</v>
+        <v>0.0847964898210469</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02973172085092178</v>
+        <v>0.04151324334740873</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>70</v>
-      </c>
-      <c r="J92" t="n">
-        <v>974234268.5199863</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3642898470.876553</v>
+        <v>4927017648.04701</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08853983126987271</v>
+        <v>0.09507586839262695</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04535650098834705</v>
+        <v>0.04786490193823008</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1821449259.153217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2361934737.171218</v>
+        <v>1609931146.1912</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1301182109532789</v>
+        <v>0.1604503331775186</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02713838884482174</v>
+        <v>0.03988072438666528</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1180967414.019195</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2578273378.499182</v>
+        <v>3069440817.225513</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1168108972444295</v>
+        <v>0.1171255623936711</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03518373211021952</v>
+        <v>0.0521800811816143</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>67</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1289136719.631297</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1718744187.417294</v>
+        <v>1570071867.521885</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1262898426962856</v>
+        <v>0.1063655241566598</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04220858489692495</v>
+        <v>0.03091441115557605</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>859372110.7167475</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4993566234.765647</v>
+        <v>4880507224.778397</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1413925725457361</v>
+        <v>0.1248038140885894</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02087675276479613</v>
+        <v>0.02406857974625758</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>88</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2496783253.660806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3082076873.231059</v>
+        <v>3866385061.756967</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1226336857055628</v>
+        <v>0.1260470383193746</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01998384756769575</v>
+        <v>0.02426794135049253</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1541038426.864866</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2871640697.917673</v>
+        <v>2381397842.442357</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09673555441700249</v>
+        <v>0.1415798808934797</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03328976187634802</v>
+        <v>0.03429508356833298</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>86</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1435820325.654001</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3686727595.670344</v>
+        <v>4250040929.587875</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1587709425155426</v>
+        <v>0.1318517804153503</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02392802484473091</v>
+        <v>0.02217280894911761</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1843363843.495611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2338742054.889094</v>
+        <v>2989881363.463756</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2093034109859193</v>
+        <v>0.1947971168836643</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04654142946204237</v>
+        <v>0.04541430532909348</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>110</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1169371029.098876</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_276.xlsx
+++ b/output/fit_clients/fit_round_276.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2464787035.105715</v>
+        <v>2201876198.182258</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07611466081819734</v>
+        <v>0.1036408520439942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03244269932475796</v>
+        <v>0.04126333936407359</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2432963675.660143</v>
+        <v>1833582575.590204</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1334782842628857</v>
+        <v>0.1270237289368516</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04746785178749337</v>
+        <v>0.03248975306906877</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3806965130.783144</v>
+        <v>4684181399.345284</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1325181172562398</v>
+        <v>0.1604195981990213</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03187747427151869</v>
+        <v>0.03099184220839192</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2718611275.449463</v>
+        <v>2918555642.037662</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07985593916526966</v>
+        <v>0.07851739264194792</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03686933397791547</v>
+        <v>0.04256179159296834</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2273121113.358417</v>
+        <v>1923687747.890516</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1469875112821624</v>
+        <v>0.1004053705508091</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04792978330099474</v>
+        <v>0.0513606731443837</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2872329064.403814</v>
+        <v>2303989335.812655</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07478515722522248</v>
+        <v>0.07765460405040596</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03097101986584914</v>
+        <v>0.03059469379029753</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2651384921.680504</v>
+        <v>2666655541.815902</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1612636811273676</v>
+        <v>0.2140497907626203</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02881358882648954</v>
+        <v>0.02179473479167764</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1884207730.372646</v>
+        <v>1832797934.706457</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1834662524446776</v>
+        <v>0.1953657021728681</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02872004301960518</v>
+        <v>0.02579449604778136</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5012508141.607009</v>
+        <v>5253908857.953176</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1351141940197238</v>
+        <v>0.1904272050530748</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04424045905479015</v>
+        <v>0.04090349662672353</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4218501636.061081</v>
+        <v>4126414126.087281</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1456275624519183</v>
+        <v>0.1461431459320674</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03299666206782338</v>
+        <v>0.04562125856305106</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2986866222.264058</v>
+        <v>3321725863.451972</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1927913516227673</v>
+        <v>0.1498618956063518</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05210417028786912</v>
+        <v>0.05183518426317388</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3952804225.533432</v>
+        <v>3480228866.040748</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08814834662055124</v>
+        <v>0.06173142528295</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01989906963357186</v>
+        <v>0.02982145237950294</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3411696272.056126</v>
+        <v>2907302405.390432</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1514292171460884</v>
+        <v>0.1537873929732894</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03661365106599604</v>
+        <v>0.0431108438612552</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1570961771.57993</v>
+        <v>1777052474.969926</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07018512302134464</v>
+        <v>0.06805188532431428</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04538191821604142</v>
+        <v>0.04172773904343093</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2660712975.933833</v>
+        <v>2438504404.195126</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1027878398813677</v>
+        <v>0.1070035469451524</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03534244564559053</v>
+        <v>0.03575802759172154</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3432072342.346667</v>
+        <v>3816440330.139942</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1239363793296259</v>
+        <v>0.1745206828647519</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03765997103849263</v>
+        <v>0.04723033270643959</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3500290526.05499</v>
+        <v>2746851014.738066</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1708482830393531</v>
+        <v>0.1732143378400359</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02176962383394019</v>
+        <v>0.02892859734999221</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1284494220.29567</v>
+        <v>1132023273.982239</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1373794192311391</v>
+        <v>0.1397172978810403</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01689554203718407</v>
+        <v>0.02170630652623497</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2244153729.808958</v>
+        <v>2694625320.227881</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1338809314522174</v>
+        <v>0.145289568877524</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02471449083377733</v>
+        <v>0.01969185419413092</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2009069982.332025</v>
+        <v>2098150135.588846</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07077891364446262</v>
+        <v>0.0656135345535752</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03656845694822082</v>
+        <v>0.02914339384555859</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3496676903.633397</v>
+        <v>3267842041.224068</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09254570639378164</v>
+        <v>0.1250158711432382</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05033165873735032</v>
+        <v>0.05370491236711412</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>998066981.3192531</v>
+        <v>1106757400.34254</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1400183834578426</v>
+        <v>0.1447606199273012</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05077138753182897</v>
+        <v>0.04817378614415702</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3847504000.236831</v>
+        <v>2666741552.005067</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1120601985292793</v>
+        <v>0.1009036068089824</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0253833972016389</v>
+        <v>0.03443672386213802</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1171883208.362203</v>
+        <v>1268354037.918916</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08206614199447078</v>
+        <v>0.1190136832276868</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02139080159593071</v>
+        <v>0.02152475626497778</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1395533743.25575</v>
+        <v>1227757527.993117</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0901539035972969</v>
+        <v>0.1240768941640024</v>
       </c>
       <c r="G26" t="n">
-        <v>0.028283726931269</v>
+        <v>0.02354560600053828</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4608420121.414906</v>
+        <v>3344196944.071588</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1541552572471985</v>
+        <v>0.1109387603723767</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02401763808981799</v>
+        <v>0.02414286799629895</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3437866521.699001</v>
+        <v>2946195846.831177</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1427438446873462</v>
+        <v>0.1463584373696083</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03046157595829671</v>
+        <v>0.04922852447672375</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4228363757.198632</v>
+        <v>4469860312.021467</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1251520860462743</v>
+        <v>0.1479965657950378</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0318263291607878</v>
+        <v>0.03047870607053048</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1962488939.032865</v>
+        <v>2137963265.195899</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08764376420764818</v>
+        <v>0.1017470856401649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03392677273474148</v>
+        <v>0.0323637159958067</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1434715805.921471</v>
+        <v>1110137010.061682</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08126772862122769</v>
+        <v>0.07481578684246579</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0498534108847261</v>
+        <v>0.03842098481847863</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1358848345.059323</v>
+        <v>1660045986.834767</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08420378491032948</v>
+        <v>0.09355991642483383</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03185110075619384</v>
+        <v>0.02614225275910775</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2232374310.751535</v>
+        <v>2000601251.739361</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1981723008679827</v>
+        <v>0.1506457429818163</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04469280473081889</v>
+        <v>0.04698454614648602</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1364856021.910093</v>
+        <v>1305373732.058558</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07449182673526392</v>
+        <v>0.08882056202748671</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01950200445522908</v>
+        <v>0.021986000834771</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>880358513.1821012</v>
+        <v>1311349882.700239</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1092188311314403</v>
+        <v>0.09683162898243479</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03123494152967492</v>
+        <v>0.04197407197576104</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2276895722.570797</v>
+        <v>1979211653.818481</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1799001031379347</v>
+        <v>0.169947787202062</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02010097144051867</v>
+        <v>0.02689879320330675</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2884398881.959774</v>
+        <v>2074113328.266101</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1060959721015701</v>
+        <v>0.09499352160198268</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03151559576029493</v>
+        <v>0.04137947865044702</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1545869253.855966</v>
+        <v>2099414977.622864</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07909715585917321</v>
+        <v>0.08058838465412328</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02925147049803512</v>
+        <v>0.03321728441722411</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1430734451.758084</v>
+        <v>2001431506.429472</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1330525463351872</v>
+        <v>0.1599174357135661</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03037488557666412</v>
+        <v>0.02203449131949888</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1743514612.770344</v>
+        <v>1521308944.024377</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1504866899934642</v>
+        <v>0.1089422517913975</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0560839842702265</v>
+        <v>0.05370071767269303</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2597667307.66321</v>
+        <v>2914550584.651412</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1222443933845453</v>
+        <v>0.1012815179153026</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03879096045556191</v>
+        <v>0.04541202563160145</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4202911383.933116</v>
+        <v>3580054233.599717</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1117635224009771</v>
+        <v>0.0937559332029848</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0386699832043333</v>
+        <v>0.03344547679766226</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2114670252.103285</v>
+        <v>2630107299.22763</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1891565547462906</v>
+        <v>0.1314858837277918</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01833876766837806</v>
+        <v>0.02480727228679318</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2242937428.469844</v>
+        <v>1500319028.32457</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1009691180011316</v>
+        <v>0.09615329189370136</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03127529621660714</v>
+        <v>0.03616616302527909</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2162672740.769068</v>
+        <v>1790141943.412525</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1319857296375526</v>
+        <v>0.1782970460565435</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04822940646108072</v>
+        <v>0.0479690283796843</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5241259149.24239</v>
+        <v>3510339070.366139</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1267826750274638</v>
+        <v>0.1311475255144157</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05968743869187847</v>
+        <v>0.05902652029473501</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4422408363.875598</v>
+        <v>3974523859.403094</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1896856956494736</v>
+        <v>0.1326954545404765</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04620992602065557</v>
+        <v>0.05744000958189668</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4676076866.82592</v>
+        <v>3038159515.633595</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08168600133016886</v>
+        <v>0.1019351927021546</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03626131811401812</v>
+        <v>0.03929429673175104</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1291384111.268188</v>
+        <v>1912289160.197122</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1347966045273132</v>
+        <v>0.1328872946684908</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0423149831281024</v>
+        <v>0.04165708619668109</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2790725408.181629</v>
+        <v>4053891784.396982</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1414711895417591</v>
+        <v>0.1657469997768796</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0420345071188245</v>
+        <v>0.05199593687162556</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1393554956.600506</v>
+        <v>1113238715.449688</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1682233592272309</v>
+        <v>0.19337026159821</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03368902599262212</v>
+        <v>0.04721097571111003</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3976645142.692314</v>
+        <v>3191197058.016759</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09764320416469542</v>
+        <v>0.0967084372223305</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05074215418644841</v>
+        <v>0.04567613291394687</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3712051290.948035</v>
+        <v>3662900050.695199</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1565300449908671</v>
+        <v>0.1987539708630525</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03257390529896116</v>
+        <v>0.02619993829350097</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3441431183.139246</v>
+        <v>3802043351.729407</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1463008351516767</v>
+        <v>0.1132099939741264</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04152433047088734</v>
+        <v>0.04920769561806614</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3307894297.677157</v>
+        <v>3584975678.851504</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2223390546015437</v>
+        <v>0.1850635128538407</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03185683018352196</v>
+        <v>0.03147570847708229</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1321591637.953894</v>
+        <v>1555594441.813779</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1637042683672003</v>
+        <v>0.1491294621983807</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03925565481540794</v>
+        <v>0.04158395363203538</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3269858172.785856</v>
+        <v>4446500435.101468</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1514164060725629</v>
+        <v>0.1170400672031346</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01780727043476808</v>
+        <v>0.02115060846415812</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1638750840.32707</v>
+        <v>1600671354.174545</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1686145258462795</v>
+        <v>0.1827617819574645</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03629559212071869</v>
+        <v>0.02898334794801024</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5364562510.43452</v>
+        <v>5081693983.429783</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1280702649639684</v>
+        <v>0.1080317687082472</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04443353862651191</v>
+        <v>0.0310149862141486</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3548483078.869916</v>
+        <v>2603367630.22082</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1569345711782593</v>
+        <v>0.1321467651176779</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02882472055261436</v>
+        <v>0.03189703449391275</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3296873002.827039</v>
+        <v>2223051975.506486</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1744299788855818</v>
+        <v>0.1352936610987989</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02850466497188515</v>
+        <v>0.02850119015400984</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1951035395.433489</v>
+        <v>1430564065.18045</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1225078880020616</v>
+        <v>0.1520719750580387</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03161871977935451</v>
+        <v>0.04626675153209716</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4731197679.914833</v>
+        <v>5008965115.078358</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06756263409007045</v>
+        <v>0.07447709750160049</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0453918044808444</v>
+        <v>0.03991757573510278</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4749009912.700308</v>
+        <v>3556713246.254553</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1743790661383931</v>
+        <v>0.1590730024124349</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02503559946407849</v>
+        <v>0.02404279141494926</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4657603221.47669</v>
+        <v>5610560487.886142</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1207234241562521</v>
+        <v>0.1631821986461034</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02628456787356274</v>
+        <v>0.0306616389554375</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3578402662.972348</v>
+        <v>3612182926.127388</v>
       </c>
       <c r="F66" t="n">
-        <v>0.142146920222105</v>
+        <v>0.1091482244267272</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04974705603241741</v>
+        <v>0.03141557396754435</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3403915678.739708</v>
+        <v>3025244294.752171</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06701743854292737</v>
+        <v>0.06942746493396051</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03143728061987681</v>
+        <v>0.05091917422670974</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3925981070.849609</v>
+        <v>4552693453.229488</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1606737016699279</v>
+        <v>0.1170272505390349</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04693248647431275</v>
+        <v>0.05085243600659235</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1750394646.831174</v>
+        <v>1727707056.210326</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1326166606071297</v>
+        <v>0.127834796168359</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03631831378354816</v>
+        <v>0.05972448674061526</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3398665121.92779</v>
+        <v>2327270600.55615</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08373654333659662</v>
+        <v>0.1011177404177012</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03123865767681915</v>
+        <v>0.04877269834040965</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5416808534.25115</v>
+        <v>5535175643.369051</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1206112138017899</v>
+        <v>0.1366182493640974</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02183699843181174</v>
+        <v>0.02439818444290205</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1743405891.710912</v>
+        <v>2007651333.674064</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1044633847967405</v>
+        <v>0.09744028316861618</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04801157981049147</v>
+        <v>0.04439375537027419</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3316857653.980119</v>
+        <v>2753083154.871823</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08997629822278887</v>
+        <v>0.09071369132958974</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04288868172597363</v>
+        <v>0.03723697497554369</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3736008467.910785</v>
+        <v>3237389448.040847</v>
       </c>
       <c r="F74" t="n">
-        <v>0.166157607064306</v>
+        <v>0.1286651058894026</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02268439772532358</v>
+        <v>0.02771344278044202</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2237063565.917761</v>
+        <v>2276134237.145525</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1136069728876401</v>
+        <v>0.1641940898881738</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03715593536120353</v>
+        <v>0.02428354691589179</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4661638508.106427</v>
+        <v>4374260995.557137</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08047678082541675</v>
+        <v>0.0962770409016739</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02238058593195484</v>
+        <v>0.03001845503409066</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1513216279.241633</v>
+        <v>1899526307.207808</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118302253991972</v>
+        <v>0.1607519847703645</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03046167928881511</v>
+        <v>0.02844764773020977</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3925020924.850657</v>
+        <v>4479397139.151776</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09348280472668805</v>
+        <v>0.1286086290608938</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05040928820345805</v>
+        <v>0.05071469332926338</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1787359018.071682</v>
+        <v>1621636170.056842</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1740846408694687</v>
+        <v>0.1259022041420274</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03041878221467689</v>
+        <v>0.02910957186835568</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5388214133.192015</v>
+        <v>5563641170.172716</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08191627509546696</v>
+        <v>0.09241148540216035</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03471516001589273</v>
+        <v>0.03265250762226764</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3217456093.159868</v>
+        <v>4620051171.646938</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08485403011402783</v>
+        <v>0.08272432055575253</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02666917036821628</v>
+        <v>0.02483177509665603</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3478897433.42198</v>
+        <v>3569723418.158022</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1712973308498197</v>
+        <v>0.2166554414992266</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0284003373285376</v>
+        <v>0.0225446206033402</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1573801018.819021</v>
+        <v>2039147427.880779</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1466331603783997</v>
+        <v>0.1499473802392918</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03362784877122663</v>
+        <v>0.03820846318912038</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1684405855.8597</v>
+        <v>2483842541.229614</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07584134850668432</v>
+        <v>0.08160595570473241</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03738222996486206</v>
+        <v>0.05037321915469947</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2486792710.479971</v>
+        <v>3440782244.718997</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1133842599672092</v>
+        <v>0.1212411239595968</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05169230039722316</v>
+        <v>0.05533049296389021</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2036006971.078207</v>
+        <v>2655115085.943041</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1647083927700896</v>
+        <v>0.1277704850882743</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02760675899665175</v>
+        <v>0.02161126542916335</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1246896863.738124</v>
+        <v>964556823.8380982</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1423985749980685</v>
+        <v>0.1806095327392724</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02867191814944516</v>
+        <v>0.03263912169065018</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2362964922.129257</v>
+        <v>2474229250.024252</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1619277895740188</v>
+        <v>0.1359744973406413</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03639514807208009</v>
+        <v>0.02486249445161891</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2777128325.077925</v>
+        <v>3139195028.250042</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1530803844733225</v>
+        <v>0.1305078979968388</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0412205221469891</v>
+        <v>0.03569208443227407</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1496950903.954814</v>
+        <v>1637701781.426646</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1009390931429837</v>
+        <v>0.08641240529165443</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04894792379414679</v>
+        <v>0.04624197404799241</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1299825010.714092</v>
+        <v>1972738603.453484</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1333140210022555</v>
+        <v>0.1516556530702372</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05791724796959503</v>
+        <v>0.05842857103613948</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2189675748.03595</v>
+        <v>1909372726.916748</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0847964898210469</v>
+        <v>0.08133846028750302</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04151324334740873</v>
+        <v>0.04275978467547328</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4927017648.04701</v>
+        <v>4244176918.224319</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09507586839262695</v>
+        <v>0.0866540650669114</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04786490193823008</v>
+        <v>0.03313655785135238</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1609931146.1912</v>
+        <v>1596537323.568687</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1604503331775186</v>
+        <v>0.1172789400798036</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03988072438666528</v>
+        <v>0.03311414707653265</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3069440817.225513</v>
+        <v>2410466946.961794</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1171255623936711</v>
+        <v>0.1335465103329823</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0521800811816143</v>
+        <v>0.05034367760863869</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1570071867.521885</v>
+        <v>2226754068.603194</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1063655241566598</v>
+        <v>0.09026390739435372</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03091441115557605</v>
+        <v>0.0390073536140705</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4880507224.778397</v>
+        <v>4561223817.451383</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1248038140885894</v>
+        <v>0.1739145809363777</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02406857974625758</v>
+        <v>0.01866279659263137</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3866385061.756967</v>
+        <v>2875260183.697096</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1260470383193746</v>
+        <v>0.1096831622134521</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02426794135049253</v>
+        <v>0.02890132837287768</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2381397842.442357</v>
+        <v>3243918104.483721</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1415798808934797</v>
+        <v>0.1235108409116934</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03429508356833298</v>
+        <v>0.03275040616363733</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4250040929.587875</v>
+        <v>3138149514.875237</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1318517804153503</v>
+        <v>0.1311772046836504</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02217280894911761</v>
+        <v>0.01941701948263978</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2989881363.463756</v>
+        <v>2759037412.653068</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1947971168836643</v>
+        <v>0.2154952632988081</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04541430532909348</v>
+        <v>0.0458318312083096</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_276.xlsx
+++ b/output/fit_clients/fit_round_276.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2201876198.182258</v>
+        <v>1765820916.582432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1036408520439942</v>
+        <v>0.09681105797527517</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04126333936407359</v>
+        <v>0.03259261518509286</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1833582575.590204</v>
+        <v>1769822970.779188</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1270237289368516</v>
+        <v>0.1244289536616379</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03248975306906877</v>
+        <v>0.03545795471037976</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4684181399.345284</v>
+        <v>4862826217.962758</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1604195981990213</v>
+        <v>0.1355774717843928</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03099184220839192</v>
+        <v>0.03790302400584983</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>147</v>
+      </c>
+      <c r="J4" t="n">
+        <v>276</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2918555642.037662</v>
+        <v>3312144091.272791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07851739264194792</v>
+        <v>0.06871499939489298</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04256179159296834</v>
+        <v>0.04097105531324834</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>111</v>
+      </c>
+      <c r="J5" t="n">
+        <v>276</v>
+      </c>
+      <c r="K5" t="n">
+        <v>97.03024968473716</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1923687747.890516</v>
+        <v>1760491769.642762</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1004053705508091</v>
+        <v>0.1183468329094827</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0513606731443837</v>
+        <v>0.03705290186639015</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2303989335.812655</v>
+        <v>2014423475.024501</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07765460405040596</v>
+        <v>0.09001827717385719</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03059469379029753</v>
+        <v>0.03116864117958061</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2666655541.815902</v>
+        <v>2498538978.254622</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2140497907626203</v>
+        <v>0.1537601882705306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02179473479167764</v>
+        <v>0.03113591369609069</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>272</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1832797934.706457</v>
+        <v>1660633600.703308</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1953657021728681</v>
+        <v>0.1465211674096345</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02579449604778136</v>
+        <v>0.03409715472545875</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5253908857.953176</v>
+        <v>5850232844.401053</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1904272050530748</v>
+        <v>0.2134205232779646</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04090349662672353</v>
+        <v>0.05122371082399706</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>248</v>
+      </c>
+      <c r="J10" t="n">
+        <v>276</v>
+      </c>
+      <c r="K10" t="n">
+        <v>94.80944463740403</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4126414126.087281</v>
+        <v>3110632522.810663</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1461431459320674</v>
+        <v>0.1513671383906119</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04562125856305106</v>
+        <v>0.0389115754721629</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>111</v>
+      </c>
+      <c r="J11" t="n">
+        <v>274</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3321725863.451972</v>
+        <v>2876195642.77694</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1498618956063518</v>
+        <v>0.16451313344371</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05183518426317388</v>
+        <v>0.04904198456429201</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3480228866.040748</v>
+        <v>3869453844.875853</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06173142528295</v>
+        <v>0.09149498314255117</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02982145237950294</v>
+        <v>0.02275289888275322</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>140</v>
+      </c>
+      <c r="J13" t="n">
+        <v>276</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2907302405.390432</v>
+        <v>3910561989.339017</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1537873929732894</v>
+        <v>0.1823819357457724</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0431108438612552</v>
+        <v>0.04257827006603147</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>56</v>
+      </c>
+      <c r="J14" t="n">
+        <v>276</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1777052474.969926</v>
+        <v>1655794753.786159</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06805188532431428</v>
+        <v>0.07919923113844507</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04172773904343093</v>
+        <v>0.03352668678847235</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2438504404.195126</v>
+        <v>2493754007.976075</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1070035469451524</v>
+        <v>0.1108869232365626</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03575802759172154</v>
+        <v>0.04994487940119811</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3816440330.139942</v>
+        <v>3557826016.126577</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1745206828647519</v>
+        <v>0.1605289824526041</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04723033270643959</v>
+        <v>0.03342520817992019</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>132</v>
+      </c>
+      <c r="J17" t="n">
+        <v>275</v>
+      </c>
+      <c r="K17" t="n">
+        <v>85.69224706127264</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2746851014.738066</v>
+        <v>2656078941.28906</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1732143378400359</v>
+        <v>0.1668753908417511</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02892859734999221</v>
+        <v>0.02534506133845961</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>275</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54.78020976074703</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1132023273.982239</v>
+        <v>1240752473.197629</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1397172978810403</v>
+        <v>0.11670520688652</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02170630652623497</v>
+        <v>0.01852231879608023</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2694625320.227881</v>
+        <v>2645621710.597344</v>
       </c>
       <c r="F20" t="n">
-        <v>0.145289568877524</v>
+        <v>0.1269334986586457</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01969185419413092</v>
+        <v>0.02561600773885197</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2098150135.588846</v>
+        <v>2032920096.818862</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0656135345535752</v>
+        <v>0.09990502245205088</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02914339384555859</v>
+        <v>0.04300636384194553</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3267842041.224068</v>
+        <v>3993209929.679007</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1250158711432382</v>
+        <v>0.1076252831087856</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05370491236711412</v>
+        <v>0.05547910990159636</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>72</v>
+      </c>
+      <c r="J22" t="n">
+        <v>276</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1106757400.34254</v>
+        <v>1431543776.516778</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1447606199273012</v>
+        <v>0.1534846355639475</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04817378614415702</v>
+        <v>0.04911665955547675</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2666741552.005067</v>
+        <v>2541225720.135566</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1009036068089824</v>
+        <v>0.1371448313451692</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03443672386213802</v>
+        <v>0.03011701803295964</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>82</v>
+      </c>
+      <c r="J24" t="n">
+        <v>273</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1268354037.918916</v>
+        <v>921819911.615678</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1190136832276868</v>
+        <v>0.07845867130122233</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02152475626497778</v>
+        <v>0.03017225748315459</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1227757527.993117</v>
+        <v>1412244235.123993</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1240768941640024</v>
+        <v>0.1126467943138652</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02354560600053828</v>
+        <v>0.02483973683167136</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3344196944.071588</v>
+        <v>3589396034.339581</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1109387603723767</v>
+        <v>0.1110621233380399</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02414286799629895</v>
+        <v>0.01837226015111407</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>113</v>
+      </c>
+      <c r="J27" t="n">
+        <v>274</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2946195846.831177</v>
+        <v>3021290816.611788</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1463584373696083</v>
+        <v>0.1132844746144631</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04922852447672375</v>
+        <v>0.04946362347780704</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>56</v>
+      </c>
+      <c r="J28" t="n">
+        <v>275</v>
+      </c>
+      <c r="K28" t="n">
+        <v>74.22880688958284</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4469860312.021467</v>
+        <v>4221438304.688488</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1479965657950378</v>
+        <v>0.1349176805592344</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03047870607053048</v>
+        <v>0.03812638608853443</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>264</v>
+      </c>
+      <c r="J29" t="n">
+        <v>276</v>
+      </c>
+      <c r="K29" t="n">
+        <v>94.42546955558969</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2137963265.195899</v>
+        <v>1770752489.914935</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1017470856401649</v>
+        <v>0.1027943024141185</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0323637159958067</v>
+        <v>0.03205551304405459</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1110137010.061682</v>
+        <v>959552165.7236407</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07481578684246579</v>
+        <v>0.1017513025112991</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03842098481847863</v>
+        <v>0.03613949826631871</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1660045986.834767</v>
+        <v>1814871250.611012</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09355991642483383</v>
+        <v>0.1112347733585926</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02614225275910775</v>
+        <v>0.03693663764073994</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2000601251.739361</v>
+        <v>2783519131.305807</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1506457429818163</v>
+        <v>0.1859004523412715</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04698454614648602</v>
+        <v>0.05615251682659564</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1305373732.058558</v>
+        <v>1371329700.627419</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08882056202748671</v>
+        <v>0.1101745208955823</v>
       </c>
       <c r="G34" t="n">
-        <v>0.021986000834771</v>
+        <v>0.02092473721107911</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1311349882.700239</v>
+        <v>842190969.8292326</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09683162898243479</v>
+        <v>0.1048337471969761</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04197407197576104</v>
+        <v>0.0343636236157444</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1979211653.818481</v>
+        <v>3242707561.957254</v>
       </c>
       <c r="F36" t="n">
-        <v>0.169947787202062</v>
+        <v>0.1424094957989828</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02689879320330675</v>
+        <v>0.02304337442178332</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2074113328.266101</v>
+        <v>2748484459.150392</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09499352160198268</v>
+        <v>0.08825980006168442</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04137947865044702</v>
+        <v>0.04035289414479618</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2099414977.622864</v>
+        <v>1782364705.175864</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08058838465412328</v>
+        <v>0.07656659129381008</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03321728441722411</v>
+        <v>0.02530549173447008</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2001431506.429472</v>
+        <v>1888549173.206413</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1599174357135661</v>
+        <v>0.1373922834581928</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02203449131949888</v>
+        <v>0.02250387484221406</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1521308944.024377</v>
+        <v>1632441430.184164</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1089422517913975</v>
+        <v>0.1060702104224356</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05370071767269303</v>
+        <v>0.05090503417683369</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2914550584.651412</v>
+        <v>1980339926.958422</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1012815179153026</v>
+        <v>0.1645697425909381</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04541202563160145</v>
+        <v>0.03773149659572369</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3580054233.599717</v>
+        <v>2978485437.00217</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0937559332029848</v>
+        <v>0.1233838059319102</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03344547679766226</v>
+        <v>0.03384872647205605</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>116</v>
+      </c>
+      <c r="J42" t="n">
+        <v>275</v>
+      </c>
+      <c r="K42" t="n">
+        <v>73.12646956824969</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2630107299.22763</v>
+        <v>2726303889.783046</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1314858837277918</v>
+        <v>0.203928084134302</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02480727228679318</v>
+        <v>0.01861338792454906</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1500319028.32457</v>
+        <v>2061721364.217485</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09615329189370136</v>
+        <v>0.06726665662598287</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03616616302527909</v>
+        <v>0.02779072569257667</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1790141943.412525</v>
+        <v>1778965453.947275</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1782970460565435</v>
+        <v>0.1416252938735637</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0479690283796843</v>
+        <v>0.04879876571048578</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3510339070.366139</v>
+        <v>4007617893.920458</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1311475255144157</v>
+        <v>0.1710592487178803</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05902652029473501</v>
+        <v>0.04968373955274465</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>161</v>
+      </c>
+      <c r="J46" t="n">
+        <v>276</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3974523859.403094</v>
+        <v>4922935575.751633</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1326954545404765</v>
+        <v>0.1478714251701677</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05744000958189668</v>
+        <v>0.04818593097841933</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>124</v>
+      </c>
+      <c r="J47" t="n">
+        <v>275</v>
+      </c>
+      <c r="K47" t="n">
+        <v>77.83151798622043</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3038159515.633595</v>
+        <v>4534508083.805176</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1019351927021546</v>
+        <v>0.07793029997567598</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03929429673175104</v>
+        <v>0.03821543331774752</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>136</v>
+      </c>
+      <c r="J48" t="n">
+        <v>276</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1912289160.197122</v>
+        <v>1235538315.464729</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1328872946684908</v>
+        <v>0.1354585091385499</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04165708619668109</v>
+        <v>0.03528864840295376</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4053891784.396982</v>
+        <v>3824379660.790482</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1657469997768796</v>
+        <v>0.1769893312607368</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05199593687162556</v>
+        <v>0.03498295950739837</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>89</v>
+      </c>
+      <c r="J50" t="n">
+        <v>273</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1113238715.449688</v>
+        <v>950644749.800463</v>
       </c>
       <c r="F51" t="n">
-        <v>0.19337026159821</v>
+        <v>0.1605919820601189</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04721097571111003</v>
+        <v>0.0512960586511161</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3191197058.016759</v>
+        <v>4542111304.829858</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0967084372223305</v>
+        <v>0.1030579596976819</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04567613291394687</v>
+        <v>0.04495299354240106</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>174</v>
+      </c>
+      <c r="J52" t="n">
+        <v>275</v>
+      </c>
+      <c r="K52" t="n">
+        <v>90.55375380955529</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3662900050.695199</v>
+        <v>3735035201.367988</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1987539708630525</v>
+        <v>0.2039258553612714</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02619993829350097</v>
+        <v>0.02704989419293695</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>273</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3802043351.729407</v>
+        <v>4688123832.261586</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1132099939741264</v>
+        <v>0.1144403276849748</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04920769561806614</v>
+        <v>0.03654962463172801</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>145</v>
+      </c>
+      <c r="J54" t="n">
+        <v>276</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3584975678.851504</v>
+        <v>4032189855.429491</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1850635128538407</v>
+        <v>0.1460252009034509</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03147570847708229</v>
+        <v>0.03173342463427307</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>124</v>
+      </c>
+      <c r="J55" t="n">
+        <v>276</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1555594441.813779</v>
+        <v>1677581602.264144</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1491294621983807</v>
+        <v>0.1544264898633608</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04158395363203538</v>
+        <v>0.03553470843330882</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4446500435.101468</v>
+        <v>3505173340.260199</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1170400672031346</v>
+        <v>0.1384449251733122</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02115060846415812</v>
+        <v>0.02325183659784988</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>111</v>
+      </c>
+      <c r="J57" t="n">
+        <v>275</v>
+      </c>
+      <c r="K57" t="n">
+        <v>92.43096969559399</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1600671354.174545</v>
+        <v>1588076418.447384</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1827617819574645</v>
+        <v>0.1312571368455839</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02898334794801024</v>
+        <v>0.02667622718050847</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5081693983.429783</v>
+        <v>3848358932.739806</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1080317687082472</v>
+        <v>0.09271556726943719</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0310149862141486</v>
+        <v>0.04334735541093974</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>133</v>
+      </c>
+      <c r="J59" t="n">
+        <v>276</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2603367630.22082</v>
+        <v>3293397618.391297</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1321467651176779</v>
+        <v>0.1912268651787161</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03189703449391275</v>
+        <v>0.03005106622429241</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>42</v>
+      </c>
+      <c r="J60" t="n">
+        <v>276</v>
+      </c>
+      <c r="K60" t="n">
+        <v>93.47953665035978</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2223051975.506486</v>
+        <v>2350878502.678455</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1352936610987989</v>
+        <v>0.1656800209822574</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02850119015400984</v>
+        <v>0.02826847631450246</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1430564065.18045</v>
+        <v>1843030268.510058</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1520719750580387</v>
+        <v>0.1634371607118735</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04626675153209716</v>
+        <v>0.03333884230841424</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5008965115.078358</v>
+        <v>4381718277.354718</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07447709750160049</v>
+        <v>0.09187372044980884</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03991757573510278</v>
+        <v>0.04759913244655502</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>134</v>
+      </c>
+      <c r="J63" t="n">
+        <v>275</v>
+      </c>
+      <c r="K63" t="n">
+        <v>89.30086871817402</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3556713246.254553</v>
+        <v>4179103057.155903</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1590730024124349</v>
+        <v>0.1342163801737392</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02404279141494926</v>
+        <v>0.02451246338533899</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>135</v>
+      </c>
+      <c r="J64" t="n">
+        <v>276</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5610560487.886142</v>
+        <v>6016923640.848888</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1631821986461034</v>
+        <v>0.122306992651577</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0306616389554375</v>
+        <v>0.03226973805414522</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>222</v>
+      </c>
+      <c r="J65" t="n">
+        <v>275</v>
+      </c>
+      <c r="K65" t="n">
+        <v>92.6596707811988</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3612182926.127388</v>
+        <v>5051705166.92842</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1091482244267272</v>
+        <v>0.1468336986249737</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03141557396754435</v>
+        <v>0.0381133948959328</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>136</v>
+      </c>
+      <c r="J66" t="n">
+        <v>276</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3025244294.752171</v>
+        <v>3266321697.08688</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06942746493396051</v>
+        <v>0.0867144255905716</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05091917422670974</v>
+        <v>0.04059569591451113</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4552693453.229488</v>
+        <v>5149351567.55886</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1170272505390349</v>
+        <v>0.1305267094142428</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05085243600659235</v>
+        <v>0.04480864390523186</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>143</v>
+      </c>
+      <c r="J68" t="n">
+        <v>275</v>
+      </c>
+      <c r="K68" t="n">
+        <v>92.49490526089598</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1727707056.210326</v>
+        <v>2307643237.892443</v>
       </c>
       <c r="F69" t="n">
-        <v>0.127834796168359</v>
+        <v>0.1414189108410989</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05972448674061526</v>
+        <v>0.05123143771920498</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2327270600.55615</v>
+        <v>2555188355.670685</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1011177404177012</v>
+        <v>0.09098772843154429</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04877269834040965</v>
+        <v>0.03220288301501239</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>270</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5535175643.369051</v>
+        <v>3519544852.183833</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1366182493640974</v>
+        <v>0.1126074861639382</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02439818444290205</v>
+        <v>0.03282527498428022</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>208</v>
+      </c>
+      <c r="J71" t="n">
+        <v>276</v>
+      </c>
+      <c r="K71" t="n">
+        <v>92.84482904481409</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2007651333.674064</v>
+        <v>1740192863.855029</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09744028316861618</v>
+        <v>0.08751254163477264</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04439375537027419</v>
+        <v>0.0506741494874728</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3016,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2753083154.871823</v>
+        <v>2504334002.535865</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09071369132958974</v>
+        <v>0.08918166614318239</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03723697497554369</v>
+        <v>0.04834011762957453</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="n">
+        <v>59.42110142015022</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3237389448.040847</v>
+        <v>3499516277.746129</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1286651058894026</v>
+        <v>0.1303193386410248</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02771344278044202</v>
+        <v>0.02706983547201009</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2276134237.145525</v>
+        <v>2462122094.144711</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1641940898881738</v>
+        <v>0.1618486441471212</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02428354691589179</v>
+        <v>0.03203152169091729</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4374260995.557137</v>
+        <v>5299629893.058908</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0962770409016739</v>
+        <v>0.1245159009910651</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03001845503409066</v>
+        <v>0.02506251253210569</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>129</v>
+      </c>
+      <c r="J76" t="n">
+        <v>276</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1899526307.207808</v>
+        <v>1535428665.105243</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1607519847703645</v>
+        <v>0.1393163598128266</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02844764773020977</v>
+        <v>0.0282873678367165</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4479397139.151776</v>
+        <v>3756767230.821152</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1286086290608938</v>
+        <v>0.0884906694664639</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05071469332926338</v>
+        <v>0.0564394996252004</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>138</v>
+      </c>
+      <c r="J78" t="n">
+        <v>274</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1621636170.056842</v>
+        <v>1824301720.349066</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1259022041420274</v>
+        <v>0.1085379510203857</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02910957186835568</v>
+        <v>0.02759634098487556</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5563641170.172716</v>
+        <v>3539328029.3528</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09241148540216035</v>
+        <v>0.08661567002486041</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03265250762226764</v>
+        <v>0.03275792081299966</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>135</v>
+      </c>
+      <c r="J80" t="n">
+        <v>275</v>
+      </c>
+      <c r="K80" t="n">
+        <v>69.48082716866942</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4620051171.646938</v>
+        <v>5132202640.945701</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08272432055575253</v>
+        <v>0.1339791851342032</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02483177509665603</v>
+        <v>0.03184918424296325</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>126</v>
+      </c>
+      <c r="J81" t="n">
+        <v>276</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3569723418.158022</v>
+        <v>4834446540.043408</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2166554414992266</v>
+        <v>0.2014763406961638</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0225446206033402</v>
+        <v>0.02780235537751663</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>205</v>
+      </c>
+      <c r="J82" t="n">
+        <v>276</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2039147427.880779</v>
+        <v>1595156087.437843</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1499473802392918</v>
+        <v>0.1034421784648788</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03820846318912038</v>
+        <v>0.03127374864369994</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2483842541.229614</v>
+        <v>1928924203.936869</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08160595570473241</v>
+        <v>0.07970282841254954</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05037321915469947</v>
+        <v>0.03494052128533615</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3440782244.718997</v>
+        <v>3257481864.201586</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1212411239595968</v>
+        <v>0.1776845458010258</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05533049296389021</v>
+        <v>0.05314556255063129</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>38</v>
+      </c>
+      <c r="J85" t="n">
+        <v>273</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2655115085.943041</v>
+        <v>2229725906.820494</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1277704850882743</v>
+        <v>0.1395222934554969</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02161126542916335</v>
+        <v>0.01844648915172031</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>964556823.8380982</v>
+        <v>1299808265.447063</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1806095327392724</v>
+        <v>0.1871559263145171</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03263912169065018</v>
+        <v>0.03553546347391414</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2474229250.024252</v>
+        <v>2298185759.433801</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1359744973406413</v>
+        <v>0.1471253206764417</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02486249445161891</v>
+        <v>0.03837429778196284</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3139195028.250042</v>
+        <v>3308703169.990892</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1305078979968388</v>
+        <v>0.1573874192247051</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03569208443227407</v>
+        <v>0.04184531393638256</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1637701781.426646</v>
+        <v>1611824849.591992</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08641240529165443</v>
+        <v>0.1369343239988765</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04624197404799241</v>
+        <v>0.04985324899482315</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1972738603.453484</v>
+        <v>1430284691.521817</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1516556530702372</v>
+        <v>0.1659289085491908</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05842857103613948</v>
+        <v>0.05548843698926184</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1909372726.916748</v>
+        <v>1847737866.550348</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08133846028750302</v>
+        <v>0.07670606314939828</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04275978467547328</v>
+        <v>0.03713680891740061</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4244176918.224319</v>
+        <v>4482412079.325047</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0866540650669114</v>
+        <v>0.1163019281457131</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03313655785135238</v>
+        <v>0.03689134960214997</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>120</v>
+      </c>
+      <c r="J93" t="n">
+        <v>275</v>
+      </c>
+      <c r="K93" t="n">
+        <v>91.5868894979178</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1596537323.568687</v>
+        <v>1637604506.202917</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1172789400798036</v>
+        <v>0.1193618158563779</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03311414707653265</v>
+        <v>0.0353702358797699</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2410466946.961794</v>
+        <v>2084848693.681282</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1335465103329823</v>
+        <v>0.1207276013217245</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05034367760863869</v>
+        <v>0.04807177418611879</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2226754068.603194</v>
+        <v>2246395576.688213</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09026390739435372</v>
+        <v>0.09879026317391279</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0390073536140705</v>
+        <v>0.03238006379477714</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4561223817.451383</v>
+        <v>3974913837.597297</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1739145809363777</v>
+        <v>0.1460702789560882</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01866279659263137</v>
+        <v>0.02847699367762095</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>136</v>
+      </c>
+      <c r="J97" t="n">
+        <v>276</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2875260183.697096</v>
+        <v>3173570018.34793</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1096831622134521</v>
+        <v>0.1096159829299043</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02890132837287768</v>
+        <v>0.02186833920736211</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>66</v>
+      </c>
+      <c r="J98" t="n">
+        <v>274</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3932,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3243918104.483721</v>
+        <v>3081993954.883904</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1235108409116934</v>
+        <v>0.1195217768123873</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03275040616363733</v>
+        <v>0.02320598312162351</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3138149514.875237</v>
+        <v>3189913611.121875</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1311772046836504</v>
+        <v>0.1313808547935613</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01941701948263978</v>
+        <v>0.02288799560187934</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>117</v>
+      </c>
+      <c r="J100" t="n">
+        <v>275</v>
+      </c>
+      <c r="K100" t="n">
+        <v>76.10588515173959</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2759037412.653068</v>
+        <v>3105629908.408958</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2154952632988081</v>
+        <v>0.1630912813590449</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0458318312083096</v>
+        <v>0.03715443446651957</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>24</v>
+      </c>
+      <c r="J101" t="n">
+        <v>275</v>
+      </c>
+      <c r="K101" t="n">
+        <v>82.69953582451167</v>
       </c>
     </row>
   </sheetData>
